--- a/ig/ch-epr-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
+++ b/ig/ch-epr-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
@@ -24,13 +24,12 @@
     <sheet name="Mapping Table 14" r:id="rId18" sheetId="16"/>
     <sheet name="Mapping Table 15" r:id="rId19" sheetId="17"/>
     <sheet name="Mapping Table 16" r:id="rId20" sheetId="18"/>
-    <sheet name="Mapping Table 17" r:id="rId21" sheetId="19"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -47,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -179,19 +178,19 @@
     <t>721965002</t>
   </si>
   <si>
-    <t>Laboratory Order (record artifact)</t>
+    <t>Laboratory order (record artifact)</t>
   </si>
   <si>
     <t>721966001</t>
   </si>
   <si>
-    <t>Pathology order (record artifact</t>
+    <t>Pathology order (record artifact)</t>
   </si>
   <si>
     <t>2161000195103</t>
   </si>
   <si>
-    <t>Imaging Order (record artifact)</t>
+    <t>Imaging order (record artifact)</t>
   </si>
   <si>
     <t>422735006</t>
@@ -242,31 +241,34 @@
     <t>Pathology report (record artifact)</t>
   </si>
   <si>
+    <t>4201000179104</t>
+  </si>
+  <si>
+    <t>Imaging report (record artifact)</t>
+  </si>
+  <si>
     <t>900000000000471006</t>
   </si>
   <si>
     <t>Image reference (foundation metadata concept)</t>
   </si>
   <si>
-    <t>urn:oid:2.16.756.5.30.1.127.3.4</t>
-  </si>
-  <si>
-    <t>4201000179104</t>
-  </si>
-  <si>
-    <t>Imaging report (record artifact)</t>
+    <t>787148009</t>
+  </si>
+  <si>
+    <t>Digital representation of specimen (record artifact)</t>
   </si>
   <si>
     <t>734163000</t>
   </si>
   <si>
-    <t>Care Plan (record artifact)</t>
+    <t>Care plan (record artifact)</t>
   </si>
   <si>
     <t>737427001</t>
   </si>
   <si>
-    <t>Clinical Management plan (record artifact)</t>
+    <t>Clinical management plan (record artifact)</t>
   </si>
   <si>
     <t>773130005</t>
@@ -290,7 +292,7 @@
     <t>761938008</t>
   </si>
   <si>
-    <t>Medical Prescription record (record artifact)</t>
+    <t>Medicinal prescription record (record artifact)</t>
   </si>
   <si>
     <t>765492005</t>
@@ -380,7 +382,7 @@
     <t>2171000195109</t>
   </si>
   <si>
-    <t>Obstetrical Record (record artifact)</t>
+    <t>Obstetrical record (record artifact)</t>
   </si>
 </sst>
 </file>
@@ -502,10 +504,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -655,7 +657,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,52 +699,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s" s="2">
         <v>43</v>
       </c>
     </row>
@@ -795,10 +763,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -859,10 +827,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -923,10 +891,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -987,10 +955,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -1008,6 +976,185 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1051,10 +1198,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -1063,185 +1210,6 @@
         <v>42</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s" s="2">
         <v>43</v>
       </c>
     </row>
@@ -1277,70 +1245,6 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
@@ -1789,7 +1693,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,9 +1812,43 @@
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
     </row>
@@ -1920,70 +1858,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2027,61 +1901,61 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
@@ -2090,6 +1964,104 @@
         <v>42</v>
       </c>
       <c r="E6" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>43</v>
       </c>
     </row>
@@ -2142,44 +2114,44 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>

--- a/ig/ch-epr-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
+++ b/ig/ch-epr-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,10 +67,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -578,76 +581,78 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -665,53 +670,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -729,53 +734,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -793,53 +798,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -857,53 +862,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -921,53 +926,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -985,70 +990,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1066,87 +1071,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1164,53 +1169,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1228,53 +1233,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1292,104 +1297,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1407,53 +1412,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1471,104 +1476,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1586,104 +1591,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1701,155 +1706,155 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1867,104 +1872,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1982,87 +1987,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2080,87 +2085,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
